--- a/biology/Médecine/Vincent_Basset_du_Tartre/Vincent_Basset_du_Tartre.xlsx
+++ b/biology/Médecine/Vincent_Basset_du_Tartre/Vincent_Basset_du_Tartre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Basset du Tartre, (fl. 1665 – 1668), était un chirurgien major du Régiment de Carignan-Salières qui arriva en Nouvelle-France à l'été de 1665 avec 1200 hommes dans vingt-quatre compagnies de soldats. 
 Le chirurgien major avait 24 chirurgiens sous ses ordres. Ils débarquèrent à Québec le 17 août 1665. Le régiment fut dirigé par le nouveau gouverneur général, Daniel de Rémy de Courcelle, et le lieutenant général, Alexandre de Prouville de Tracy. En 1666, Basset accompagna Daniel de Rémy dans une campagne militaire contre les Iroquois regroupés en Cinq-Nations. 
